--- a/Deliverables/Code Review/Evaluation.xlsx
+++ b/Deliverables/Code Review/Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\GitHub\Group-3-Repository\Deliverables\Code Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keemk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F652B-C28D-4482-9814-F5AE418C5FC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B13AAE-72D7-4848-BB7C-1A19391A51DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -188,6 +188,63 @@
   </si>
   <si>
     <t>Make sure the plugins are working nice together. (Which they are not)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loginizer Security protects the login from brute force attacks. </t>
+  </si>
+  <si>
+    <t>Users are allowed to use very weak passwords, it may be worth it to enforce stronger ones.</t>
+  </si>
+  <si>
+    <t>Ensure that the plugins remain compatible and updated.</t>
+  </si>
+  <si>
+    <t>High. Login is controlled primarily by Loginizer and Paid Membership Pro. Plugins are easy to maintain and there are only two.</t>
+  </si>
+  <si>
+    <t>The two plugins are working together without issue</t>
+  </si>
+  <si>
+    <t>Potentially add additional plugins for more functionality (password requirements)</t>
+  </si>
+  <si>
+    <t>Login takes two steps, select account type and then enter Username, Password, Email, Name</t>
+  </si>
+  <si>
+    <t>Documentation provided by plugins, including logs of login attacks and all user accounts and account details</t>
+  </si>
+  <si>
+    <t>Creation of different account levels with multiple usernames, including admin login</t>
+  </si>
+  <si>
+    <t>Account level assignment is half working, need to get BuddyPress to recognize the account levels.</t>
+  </si>
+  <si>
+    <t>Login is very quick, two easy steps</t>
+  </si>
+  <si>
+    <t>Namecheap auto backs up the site info</t>
+  </si>
+  <si>
+    <t>Check the backend of the site, contact namecheap support</t>
+  </si>
+  <si>
+    <t>could write up a procedure</t>
+  </si>
+  <si>
+    <t>role assignment can sometimes not get recognized by buddypress</t>
+  </si>
+  <si>
+    <t>update the buddypress plugin</t>
+  </si>
+  <si>
+    <t>servicable, looks like a login page, clear how to use</t>
+  </si>
+  <si>
+    <t>could write css to make more pretty, not high priority</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -626,19 +683,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C93C76-FF1F-4748-96EE-1115D9605DB1}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -646,7 +703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -657,7 +714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -668,7 +725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -679,7 +736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -690,7 +747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -701,7 +758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -712,7 +769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,7 +780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -734,7 +791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -745,7 +802,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -756,7 +813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -767,7 +824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -778,7 +835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -789,7 +846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -800,7 +857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -822,18 +879,18 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -841,7 +898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -852,96 +909,148 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -953,19 +1062,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD388DC-C570-49DD-A834-D0CFFF6A3350}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -973,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -984,91 +1093,91 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1089,15 +1198,15 @@
       <selection activeCell="C4" sqref="C4:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1116,91 +1225,91 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1221,15 +1330,15 @@
       <selection activeCell="C4" sqref="C4:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.68359375" customWidth="1"/>
+    <col min="2" max="2" width="36.68359375" customWidth="1"/>
+    <col min="3" max="3" width="45.41796875" customWidth="1"/>
+    <col min="4" max="4" width="18.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1237,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1248,91 +1357,91 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>

--- a/Deliverables/Code Review/Evaluation.xlsx
+++ b/Deliverables/Code Review/Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keemk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batman\Desktop\Towson Spring 2021\COSC 412\Group_repo\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B13AAE-72D7-4848-BB7C-1A19391A51DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC47834E-A76A-47B2-900A-547A46EA1E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -245,6 +244,51 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Secure as the user input is handled by the plugin and the google api key is not accesable to the outside user .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure that the page is protected from bot spams or other attacks that could cause the API to be charged extra. </t>
+  </si>
+  <si>
+    <t>Easy to maintan, more locations can be easily added, and as long as the number of hits to the page stay at a reasonable number there should be no charges for the API. The plugin can also be simply updated through the wp-admin page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty simple setup, simply a plugin that manages location, and a google maps api key that provides the maps functionality </t>
+  </si>
+  <si>
+    <t>You can submit support requests through https://wpstorelocator.co/support/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There Is doucmentation for how to manage the plugin and how it is connected to the google API https://wpstorelocator.co/documentation/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation on the how the Google Maps API key is set up, how billing is handled and what account it is on should all be created. </t>
+  </si>
+  <si>
+    <t>Tested the map from mulitple devices and locations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test the map on multiple browsers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map works quickly </t>
+  </si>
+  <si>
+    <t>The map functions correctly</t>
+  </si>
+  <si>
+    <t>Currently a few white boxes and a map make up the interface.</t>
+  </si>
+  <si>
+    <t>Work well on the phone and desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a small annoyance, when you navigate to the page it asks your location and displays the gyms and parks near you, but to filter by gyms or parks you have to manually enter your location and search again. This will be worked on as a stretch Goal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The interface could look a little better, maybe adding some round edges and making the filter options more clear. This will be worked on as a stretch Goal </t>
   </si>
 </sst>
 </file>
@@ -683,19 +727,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C93C76-FF1F-4748-96EE-1115D9605DB1}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.68359375" customWidth="1"/>
-    <col min="2" max="2" width="36.68359375" customWidth="1"/>
-    <col min="3" max="3" width="45.41796875" customWidth="1"/>
-    <col min="4" max="4" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -703,7 +747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -714,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -725,7 +769,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,7 +780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -747,7 +791,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -758,7 +802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -769,7 +813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -780,7 +824,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -791,7 +835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -802,7 +846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -813,7 +857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -824,7 +868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -835,7 +879,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -846,7 +890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -857,7 +901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -882,15 +926,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.68359375" customWidth="1"/>
-    <col min="2" max="2" width="36.68359375" customWidth="1"/>
-    <col min="3" max="3" width="45.41796875" customWidth="1"/>
-    <col min="4" max="4" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -898,7 +942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -909,7 +953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -920,7 +964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -931,7 +975,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -942,7 +986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -953,7 +997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -964,7 +1008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -975,7 +1019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -986,7 +1030,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1008,7 +1052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1063,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1041,7 +1085,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1062,19 +1106,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD388DC-C570-49DD-A834-D0CFFF6A3350}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.68359375" customWidth="1"/>
-    <col min="2" max="2" width="36.68359375" customWidth="1"/>
-    <col min="3" max="3" width="45.41796875" customWidth="1"/>
-    <col min="4" max="4" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1093,91 +1137,91 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1194,19 +1238,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31681DCD-7B9F-4A8A-81F4-84F4BCA6FE0B}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.68359375" customWidth="1"/>
-    <col min="2" max="2" width="36.68359375" customWidth="1"/>
-    <col min="3" max="3" width="45.41796875" customWidth="1"/>
-    <col min="4" max="4" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1225,96 +1269,148 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1330,15 +1426,15 @@
       <selection activeCell="C4" sqref="C4:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.68359375" customWidth="1"/>
-    <col min="2" max="2" width="36.68359375" customWidth="1"/>
-    <col min="3" max="3" width="45.41796875" customWidth="1"/>
-    <col min="4" max="4" width="18.41796875" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="1.65">
+    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1357,91 +1453,91 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>

--- a/Deliverables/Code Review/Evaluation.xlsx
+++ b/Deliverables/Code Review/Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batman\Desktop\Towson Spring 2021\COSC 412\Group_repo\Group-3-Repository\Deliverables\Code Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Software Engineering COSC412\Group Project\Project repo\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC47834E-A76A-47B2-900A-547A46EA1E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5378E0-3D71-417B-BE95-C6AFCFDA3D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="103">
   <si>
     <t>Security in Word Press</t>
   </si>
@@ -289,6 +289,63 @@
   </si>
   <si>
     <t xml:space="preserve">The interface could look a little better, maybe adding some round edges and making the filter options more clear. This will be worked on as a stretch Goal </t>
+  </si>
+  <si>
+    <t>Easily maintained through plugin updates</t>
+  </si>
+  <si>
+    <t>Visitor/Registered users can view pages based on user roles</t>
+  </si>
+  <si>
+    <t>Able to view pages based on specified user role</t>
+  </si>
+  <si>
+    <t>Namecheap provides automatic backups of site information.</t>
+  </si>
+  <si>
+    <t>contact namecheap support</t>
+  </si>
+  <si>
+    <t>User friendly and welcoming to all</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Possible landing page if site were to go down</t>
+  </si>
+  <si>
+    <t>Fair loading speed</t>
+  </si>
+  <si>
+    <t>Possibly resizing or compressing images</t>
+  </si>
+  <si>
+    <t>Find a plugin to protect from Hotlinking</t>
+  </si>
+  <si>
+    <t>Ensure plugins are up-to-date, images potentially susceptible to hotlinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep plugins current and ensure compatability </t>
+  </si>
+  <si>
+    <t>Primary format provided by Neve plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide further documentation </t>
+  </si>
+  <si>
+    <t>Keeping Design Consistent</t>
+  </si>
+  <si>
+    <t>Neve compatability with other plugins</t>
+  </si>
+  <si>
+    <t>Prompt to join displayed for all users regardless of membership level</t>
+  </si>
+  <si>
+    <t>Display join now prompt to site visitors only</t>
   </si>
 </sst>
 </file>
@@ -727,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C93C76-FF1F-4748-96EE-1115D9605DB1}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -922,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89C369A-A4D0-4EFD-94C4-DEAB9BA6DFE9}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD388DC-C570-49DD-A834-D0CFFF6A3350}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,92 +1198,144 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1238,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31681DCD-7B9F-4A8A-81F4-84F4BCA6FE0B}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/Deliverables/Code Review/Evaluation.xlsx
+++ b/Deliverables/Code Review/Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Software Engineering COSC412\Group Project\Project repo\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5378E0-3D71-417B-BE95-C6AFCFDA3D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8777C6E-3A0F-47EF-B91C-7969E1917708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Map" sheetId="3" r:id="rId4"/>
     <sheet name="Game" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -330,22 +330,22 @@
     <t xml:space="preserve">Keep plugins current and ensure compatability </t>
   </si>
   <si>
-    <t>Primary format provided by Neve plugin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Provide further documentation </t>
   </si>
   <si>
     <t>Keeping Design Consistent</t>
   </si>
   <si>
-    <t>Neve compatability with other plugins</t>
-  </si>
-  <si>
     <t>Prompt to join displayed for all users regardless of membership level</t>
   </si>
   <si>
     <t>Display join now prompt to site visitors only</t>
+  </si>
+  <si>
+    <t>Primary format provided by Template Patterns and Collections plugin</t>
+  </si>
+  <si>
+    <t>Template Patterns and Collections compatability with other plugins</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,10 +1232,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
